--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\IdeaProjects\DemoWorkShop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE77C8D-DD11-4759-AD68-44B61BC12D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE41876-6AC3-41E3-839D-40E12812E12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="2715" windowWidth="17460" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="2715" windowWidth="17460" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="homePage" sheetId="1" r:id="rId1"/>
     <sheet name="loginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="registerPage" sheetId="3" r:id="rId3"/>
+    <sheet name="jewelleryPage" sheetId="4" r:id="rId4"/>
+    <sheet name="sort-option" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Demo Web Shop</t>
   </si>
@@ -44,13 +47,46 @@
   </si>
   <si>
     <t>bhavanasree123@gmail.com</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Bhavana</t>
+  </si>
+  <si>
+    <t>suresh</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Menu option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Z to A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A to Z</t>
+  </si>
+  <si>
+    <t>sort-option</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +101,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,9 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -401,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE630E7-438A-47E8-8CEE-B1E19E4752FD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -433,4 +476,101 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632B3F54-3CEE-4790-8093-3EB40BA59078}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FCBD5C-823F-4048-B25E-3B86694A8EAB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46558F6-8226-44B7-8D61-F51191393B1A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>